--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_1.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-263724.5473518897</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>11832688.77334104</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>29144987.88634257</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.378726134181789e-10</v>
+        <v>934236.7980634799</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>137.841438974359</v>
@@ -22673,7 +22673,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -22746,10 +22746,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>220.0898510449805</v>
@@ -22828,10 +22828,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22983,7 +22983,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>151.5050016294458</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -23062,13 +23062,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
@@ -23202,10 +23202,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>134.8846762812383</v>
@@ -23220,10 +23220,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23299,13 +23299,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -23381,10 +23381,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23439,7 +23439,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>129.0132581705354</v>
@@ -23457,10 +23457,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
@@ -23539,10 +23539,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23594,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>134.8846762812383</v>
@@ -23694,10 +23694,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23773,13 +23773,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23858,7 +23858,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23916,7 +23916,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K19" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>134.8846762812383</v>
@@ -23931,10 +23931,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -24013,10 +24013,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -24095,7 +24095,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24150,10 +24150,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>134.8846762812383</v>
@@ -24168,7 +24168,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>151.5050016294458</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>220.0898510449805</v>
@@ -24250,10 +24250,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -24387,10 +24387,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>134.8846762812383</v>
@@ -24405,10 +24405,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>220.0898510449805</v>
@@ -24487,10 +24487,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -24569,7 +24569,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24624,10 +24624,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>134.8846762812383</v>
@@ -24642,7 +24642,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>151.5050016294458</v>
@@ -24724,10 +24724,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24779,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -24806,7 +24806,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24861,10 +24861,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -24882,7 +24882,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24961,10 +24961,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25016,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -25043,7 +25043,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25098,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>129.0132581705354</v>
@@ -25116,10 +25116,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25198,10 +25198,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25256,7 +25256,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -25280,7 +25280,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25335,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>129.0132581705354</v>
@@ -25356,7 +25356,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25435,10 +25435,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25490,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -25517,7 +25517,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25572,10 +25572,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -25590,10 +25590,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25672,10 +25672,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25727,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -25754,7 +25754,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25809,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -25827,10 +25827,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -25967,7 +25967,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -25991,7 +25991,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26046,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>129.0132581705354</v>
@@ -26067,7 +26067,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>91367.43262267609</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>88583.82259578389</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>120612.3817229381</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>106134.4257067076</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>87941.47175267609</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>88462.10290480615</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>79094.21127606471</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>87941.47175267609</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>88583.82259578389</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>52234.88094811653</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>53438.87609901249</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>56415.14409115099</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>57986.16054529468</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>67475.77186501384</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>41023.74685462168</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1286.865248206707</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1247.659473180056</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1698.765939759693</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1494.851066291657</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1238.612278206707</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1245.945111335299</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1114.002975719223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1238.612278206707</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1247.659473180056</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>735.7025485650217</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>752.660226746655</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>794.5794942415637</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>816.7064865534464</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>950.3629840142798</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>577.7992514735452</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2573.730496413413</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2495.318946360112</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3397.531879519386</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2989.702132583315</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2477.224556413413</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2491.890222670597</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2228.005951438445</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2477.224556413413</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2495.318946360112</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1471.405097130043</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1505.32045349331</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1589.158988483127</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1633.412973106893</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1900.72596802856</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1155.59850294709</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263724.5473518897</v>
+        <v>-109163.0501070898</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11832688.77334104</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29144987.88634257</v>
+        <v>30789066.36991068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>934236.7980634799</v>
+        <v>-1.378726134181789e-10</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
         <v>137.841438974359</v>
@@ -22673,7 +22673,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -22746,10 +22746,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
         <v>220.0898510449805</v>
@@ -22828,10 +22828,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22983,7 +22983,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q7" t="n">
         <v>151.5050016294458</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -23062,13 +23062,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
@@ -23202,10 +23202,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L10" t="n">
         <v>134.8846762812383</v>
@@ -23220,10 +23220,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23299,13 +23299,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -23381,10 +23381,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23439,7 +23439,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K13" t="n">
         <v>129.0132581705354</v>
@@ -23457,10 +23457,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
@@ -23539,10 +23539,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23594,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L16" t="n">
         <v>134.8846762812383</v>
@@ -23694,10 +23694,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23773,13 +23773,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23858,7 +23858,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23916,7 +23916,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L19" t="n">
         <v>134.8846762812383</v>
@@ -23931,10 +23931,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -24013,10 +24013,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -24095,7 +24095,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24150,10 +24150,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L22" t="n">
         <v>134.8846762812383</v>
@@ -24168,7 +24168,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q22" t="n">
         <v>151.5050016294458</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K23" t="n">
         <v>220.0898510449805</v>
@@ -24250,10 +24250,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -24387,10 +24387,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L25" t="n">
         <v>134.8846762812383</v>
@@ -24405,10 +24405,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K26" t="n">
         <v>220.0898510449805</v>
@@ -24487,10 +24487,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -24569,7 +24569,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24624,10 +24624,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L28" t="n">
         <v>134.8846762812383</v>
@@ -24642,7 +24642,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q28" t="n">
         <v>151.5050016294458</v>
@@ -24724,10 +24724,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24779,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -24806,7 +24806,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24861,10 +24861,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -24882,7 +24882,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24961,10 +24961,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25016,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -25043,7 +25043,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25098,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K34" t="n">
         <v>129.0132581705354</v>
@@ -25116,10 +25116,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25198,10 +25198,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25256,7 +25256,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -25280,7 +25280,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25335,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K37" t="n">
         <v>129.0132581705354</v>
@@ -25356,7 +25356,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25435,10 +25435,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25490,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -25517,7 +25517,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25572,10 +25572,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -25590,10 +25590,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25672,10 +25672,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25727,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -25754,7 +25754,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25809,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -25827,10 +25827,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -25967,7 +25967,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -25991,7 +25991,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26046,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K46" t="n">
         <v>129.0132581705354</v>
@@ -26067,7 +26067,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>91367.43262267609</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>88583.82259578389</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>120612.3817229381</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>106134.4257067076</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87941.47175267609</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88462.10290480615</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79094.21127606471</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>87941.47175267609</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88583.82259578389</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>52234.88094811653</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>53438.87609901249</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>56415.14409115099</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>57986.16054529468</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67475.77186501384</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>41023.74685462168</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.865248206707</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1247.659473180056</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1698.765939759693</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1494.851066291657</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1238.612278206707</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1245.945111335299</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1114.002975719223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1238.612278206707</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1247.659473180056</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>735.7025485650217</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>752.660226746655</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>794.5794942415637</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>816.7064865534464</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>950.3629840142798</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>577.7992514735452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2573.730496413413</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2495.318946360112</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3397.531879519386</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2989.702132583315</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2477.224556413413</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2491.890222670597</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2228.005951438445</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2477.224556413413</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2495.318946360112</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1471.405097130043</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1505.32045349331</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1589.158988483127</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1633.412973106893</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1900.72596802856</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1155.59850294709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="C6" t="n">
-        <v>-54153.64424660709</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="D6" t="n">
-        <v>-54153.64424660709</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="E6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="F6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="G6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="H6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="J6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="K6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="L6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="M6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="N6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="O6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="P6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
     </row>
   </sheetData>
